--- a/Assets/Mappe1.xlsx
+++ b/Assets/Mappe1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nils\programmieren\fertig\C#\Unity\Latein\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E03451-675F-4081-96C7-8D2611F45BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED78AF1-6030-4DEF-ACB5-307E4481F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9996" yWindow="336" windowWidth="30960" windowHeight="12120" xr2:uid="{E642AFE2-144B-4365-95A8-47BEB35A6BD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{E642AFE2-144B-4365-95A8-47BEB35A6BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>Alete</t>
   </si>
   <si>
-    <t>Balea</t>
-  </si>
-  <si>
     <t>Vitalis</t>
   </si>
   <si>
-    <t>Alnatura</t>
-  </si>
-  <si>
     <t>Nike</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Felix</t>
   </si>
   <si>
-    <t>Lion</t>
-  </si>
-  <si>
     <t>Hermes</t>
   </si>
   <si>
@@ -96,12 +87,6 @@
     <t>Nero</t>
   </si>
   <si>
-    <t>ProSieben</t>
-  </si>
-  <si>
-    <t>Poseidon</t>
-  </si>
-  <si>
     <t>Pulmoll</t>
   </si>
   <si>
@@ -126,12 +111,6 @@
     <t>Labello</t>
   </si>
   <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Arte</t>
-  </si>
-  <si>
     <t>Humanitas</t>
   </si>
   <si>
@@ -361,14 +340,112 @@
   </si>
   <si>
     <t>warm</t>
+  </si>
+  <si>
+    <t>Nährt! Die Befehlsform von Alere. Manchmal schon nachvollziehbar beim Babyfüttern…</t>
+  </si>
+  <si>
+    <t>Sich mit diesem Schuh den Sieg zu holen, das scheint hier die Idee zu sein</t>
+  </si>
+  <si>
+    <t>Eigentlich wollte August Horch die Firma nach seinem Nachnamen benennen. Das ging jedoch nicht, also nahm er das lateinische Horchen und schon waren wir bei Audi</t>
+  </si>
+  <si>
+    <t>Liebevoll, samt, zärtlich - schöne Eigenschaften für einen Rasierer</t>
+  </si>
+  <si>
+    <t>Das Bild einer glücklichen Katze steht diesem Futter auch ins Gesicht geschrieben</t>
+  </si>
+  <si>
+    <t>Vom Bote der Götter zum Boten der Päckchen, kein weiter Sprung wie ich finde</t>
+  </si>
+  <si>
+    <t>Unberührt und makellos - so mag ich meine Musik</t>
+  </si>
+  <si>
+    <t>Ein Müsli voller Leben - schöner Gedanke für den Montag Morgen</t>
+  </si>
+  <si>
+    <t>Je schneller es weg ist, desto besser *schnief*</t>
+  </si>
+  <si>
+    <t>Machen die Götter einmal die Lampen aus und schon ist das Paket vor der Tür</t>
+  </si>
+  <si>
+    <t>Ohne drehende Räder kommt man nicht weit, nehm ich an</t>
+  </si>
+  <si>
+    <t>Eine schwarze Kugel befreit die Lunge - komischer Gedanke aber scheint zu funktionieren</t>
+  </si>
+  <si>
+    <t>Nichts geht über die warme, erholsame Nachtruhe, nicht wahr?</t>
+  </si>
+  <si>
+    <t>Lieber brennt Nero diese komischen runden Scheiben als halb Rom ab, bei allen Göttern!</t>
+  </si>
+  <si>
+    <t>Es ist ein Wunder, wie alle denken, dass diese Dinger von uns kommen. Ich fange langsam an, ihnen zu glauben</t>
+  </si>
+  <si>
+    <t>Für ein Eis, das sich selbst groß nennt, könnte es wie ich finde noch größer sein</t>
+  </si>
+  <si>
+    <t>Ein Kanal für die Stinne oder so. Ich blick durch diee neue Technik einfach nicht mehr durch</t>
+  </si>
+  <si>
+    <t>Eine Creme so weiß wie Schnee, nur hoffentlich nicht ganz so kalt</t>
+  </si>
+  <si>
+    <t>Der Schutz der Hausgötter lindert doch direkt das Wewechen</t>
+  </si>
+  <si>
+    <t>Bona aqua - Gutes Wasser. Wie viele Marketing Genies wohl an dem Namen beteiligt waren…</t>
+  </si>
+  <si>
+    <t>Labium bellum, kürzer geht’s leichter von den Lippen oder?</t>
+  </si>
+  <si>
+    <t>Der Gott der Ackersaat und das Symbol des goldenen Zeitalters, was scheinbar in diesen Läden stattfinden</t>
+  </si>
+  <si>
+    <t>Ob es so schlau ist, um sein Geld mit dem Gott der Diebe zu wetten? Mhm.</t>
+  </si>
+  <si>
+    <t>Ein paar Sisterzen können Leben retten</t>
+  </si>
+  <si>
+    <t>Die Milch aus den Bergen in ein Becher aus dem Kühlschrank - der Kreislauf des Lebens</t>
+  </si>
+  <si>
+    <t>Menschlicher geht’s wohl kaum</t>
+  </si>
+  <si>
+    <t>Aktivität direkt aus der Flasche</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>Ursprung</t>
+  </si>
+  <si>
+    <t>Voiceline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -396,8 +473,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -712,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7325AD8A-A7AF-4CA0-B165-DBF040DCBFBE}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,415 +801,475 @@
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="152.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
+      <c r="E30" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E30">
+    <sortCondition ref="A3:A30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Mappe1.xlsx
+++ b/Assets/Mappe1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nils\programmieren\fertig\C#\Unity\Latein\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED78AF1-6030-4DEF-ACB5-307E4481F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD80832-C9F8-4C98-8B85-BFD525766C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{E642AFE2-144B-4365-95A8-47BEB35A6BD8}"/>
+    <workbookView xWindow="-96" yWindow="336" windowWidth="30960" windowHeight="12120" xr2:uid="{E642AFE2-144B-4365-95A8-47BEB35A6BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -345,12 +345,6 @@
     <t>Nährt! Die Befehlsform von Alere. Manchmal schon nachvollziehbar beim Babyfüttern…</t>
   </si>
   <si>
-    <t>Sich mit diesem Schuh den Sieg zu holen, das scheint hier die Idee zu sein</t>
-  </si>
-  <si>
-    <t>Eigentlich wollte August Horch die Firma nach seinem Nachnamen benennen. Das ging jedoch nicht, also nahm er das lateinische Horchen und schon waren wir bei Audi</t>
-  </si>
-  <si>
     <t>Liebevoll, samt, zärtlich - schöne Eigenschaften für einen Rasierer</t>
   </si>
   <si>
@@ -372,15 +366,9 @@
     <t>Machen die Götter einmal die Lampen aus und schon ist das Paket vor der Tür</t>
   </si>
   <si>
-    <t>Ohne drehende Räder kommt man nicht weit, nehm ich an</t>
-  </si>
-  <si>
     <t>Eine schwarze Kugel befreit die Lunge - komischer Gedanke aber scheint zu funktionieren</t>
   </si>
   <si>
-    <t>Nichts geht über die warme, erholsame Nachtruhe, nicht wahr?</t>
-  </si>
-  <si>
     <t>Lieber brennt Nero diese komischen runden Scheiben als halb Rom ab, bei allen Göttern!</t>
   </si>
   <si>
@@ -390,9 +378,6 @@
     <t>Für ein Eis, das sich selbst groß nennt, könnte es wie ich finde noch größer sein</t>
   </si>
   <si>
-    <t>Ein Kanal für die Stinne oder so. Ich blick durch diee neue Technik einfach nicht mehr durch</t>
-  </si>
-  <si>
     <t>Eine Creme so weiß wie Schnee, nur hoffentlich nicht ganz so kalt</t>
   </si>
   <si>
@@ -402,12 +387,6 @@
     <t>Bona aqua - Gutes Wasser. Wie viele Marketing Genies wohl an dem Namen beteiligt waren…</t>
   </si>
   <si>
-    <t>Labium bellum, kürzer geht’s leichter von den Lippen oder?</t>
-  </si>
-  <si>
-    <t>Der Gott der Ackersaat und das Symbol des goldenen Zeitalters, was scheinbar in diesen Läden stattfinden</t>
-  </si>
-  <si>
     <t>Ob es so schlau ist, um sein Geld mit dem Gott der Diebe zu wetten? Mhm.</t>
   </si>
   <si>
@@ -417,9 +396,6 @@
     <t>Die Milch aus den Bergen in ein Becher aus dem Kühlschrank - der Kreislauf des Lebens</t>
   </si>
   <si>
-    <t>Menschlicher geht’s wohl kaum</t>
-  </si>
-  <si>
     <t>Aktivität direkt aus der Flasche</t>
   </si>
   <si>
@@ -430,6 +406,30 @@
   </si>
   <si>
     <t>Voiceline</t>
+  </si>
+  <si>
+    <t>Aufm Acker die Pflanzen und im Regal die Technik</t>
+  </si>
+  <si>
+    <t>Warme Nachtkleidung hätten wir in Gallien auch gut gebrauchen können</t>
+  </si>
+  <si>
+    <t>Labium bellum, Bellum kann auch Krieg heißen</t>
+  </si>
+  <si>
+    <t>Also ich find ja mein Pferd besser aber jedem das seine</t>
+  </si>
+  <si>
+    <t>Ein Amphitheater für zuhause, na prima</t>
+  </si>
+  <si>
+    <t>Veni Vidi Vici cum Nike haha</t>
+  </si>
+  <si>
+    <t>Der Erfinder von Audi hieß Horch mit Nachnamen. Aber das klang halt nich so schön ne?</t>
+  </si>
+  <si>
+    <t>Menschlichkeit hätten die in Troja auch gut gebrauchen können</t>
   </si>
 </sst>
 </file>
@@ -453,12 +453,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -473,9 +479,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -792,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7325AD8A-A7AF-4CA0-B165-DBF040DCBFBE}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,7 +809,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="152.109375" customWidth="1"/>
+    <col min="5" max="5" width="90.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,16 +817,16 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,7 +843,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,7 +891,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,8 +904,8 @@
       <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
-        <v>114</v>
+      <c r="E7" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,7 +922,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,7 +939,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,7 +964,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,7 +981,7 @@
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -987,8 +994,8 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
-        <v>122</v>
+      <c r="E13" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,7 +1012,7 @@
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,7 +1026,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1036,7 +1043,7 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,7 +1060,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1070,7 +1077,7 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1087,7 +1094,7 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1101,7 +1108,7 @@
         <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1118,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1152,7 +1159,7 @@
         <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1183,7 +1190,7 @@
         <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1200,7 +1207,7 @@
         <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1217,7 +1224,7 @@
         <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1231,7 +1238,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1247,8 +1254,8 @@
       <c r="D29" t="s">
         <v>81</v>
       </c>
-      <c r="E29" t="s">
-        <v>112</v>
+      <c r="E29" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1262,7 +1269,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
